--- a/medicine/Mort/Roger_W._McGowen/Roger_W._McGowen.xlsx
+++ b/medicine/Mort/Roger_W._McGowen/Roger_W._McGowen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Roger W. McGowen, né le 23 décembre 1963[1], est une personnalité afro-américaine condamnée à mort au Texas. Il a également publié son autobiographie. Il est actuellement détenu dans le couloir de la mort de la prison de Wynne Unit au Texas[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roger W. McGowen, né le 23 décembre 1963, est une personnalité afro-américaine condamnée à mort au Texas. Il a également publié son autobiographie. Il est actuellement détenu dans le couloir de la mort de la prison de Wynne Unit au Texas.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">McGowen est le 7ème d'une famille de 10 enfants. Il est condamné à mort au Texas en 1987[3]. Il est depuis dans le couloir de la mort. Il entretient une correspondance avec le sociologue et écrivain suisse Pierre Pradervand, correspondance qui aboutit à la publication de deux livres autobiographiques et biographiques[4].
-Il a écrit des chroniques pour le journal français Libération[3].
-Il a fait l'objet d'un documentaire soutenu par le journal suisse le Temps[5], qui a fait l'objet de reportage par la Radio Télévision Suisse[6] ainsi qu'une couverture dans l'émission Temps présent[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">McGowen est le 7ème d'une famille de 10 enfants. Il est condamné à mort au Texas en 1987. Il est depuis dans le couloir de la mort. Il entretient une correspondance avec le sociologue et écrivain suisse Pierre Pradervand, correspondance qui aboutit à la publication de deux livres autobiographiques et biographiques.
+Il a écrit des chroniques pour le journal français Libération.
+Il a fait l'objet d'un documentaire soutenu par le journal suisse le Temps, qui a fait l'objet de reportage par la Radio Télévision Suisse ainsi qu'une couverture dans l'émission Temps présent.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Messages de vie du couloir de la mort, avec Pierre Pradervand, préface de Christiane Singer, éditions Jouvence, 2003.
 Messages de vie du couloir de la mort, avec Pierre Pradervand, préface de Christiane Singer, éditions Jouvence, réédition revue et augmentée de 10 ans de correspondance, 2013.</t>
@@ -575,9 +591,11 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Roger McGowen condamné à mort n°889, film documentaire de Nicolas Pallay, 2012[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Roger McGowen condamné à mort n°889, film documentaire de Nicolas Pallay, 2012.</t>
         </is>
       </c>
     </row>
